--- a/similarities/split_global/harmonic_similarity_timestamps_347.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_347.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,450 +484,498 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:17.965212', '0:00:29.679679')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:43.713000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=17.965212']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:min', 'G', 'D/3', 'E:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'A', 'E', 'F#:min']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:53.535000', '0:03:02.857000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.478690', '0:00:16.913854')]</t>
+          <t>('0:00:17.480000', '0:00:19.720000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-10#t=173.535']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=0.47869']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7', 'D']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C:7', 'F']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:16.562199', '0:00:24.735623')]</t>
+          <t>('0:00:25.390000', '0:00:37.670000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:36.970000', '0:00:42.100000')]</t>
+          <t>('0:00:17.737518', '0:00:22.996837')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=16.562199']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=25.39</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=36.97']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F#:min7', 'B:7', 'E']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:22.680000', '0:00:26.280000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:05.708194', '0:00:10.061936')]</t>
+          <t>('0:00:15.880000', '0:00:17.370000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=22.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'Bb:7', 'Eb']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.120000', '0:00:14.120000')]</t>
+          <t>('0:00:02.660000', '0:00:10.620000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:26.110000', '0:00:31.880000')]</t>
+          <t>('0:00:10.380000', '0:00:22.020000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=7.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.11']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:25.480000', '0:00:32.580000')]</t>
+          <t>('0:00:00.600000', '0:00:11.320000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:00:06.980000', '0:00:21.920000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
+          <t>('0:00:31.840929', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:22.098788')]</t>
+          <t>('0:02:11.460000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=131.46</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>['C', 'D:min7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000')]</t>
+          <t>('0:01:02.270000', '0:01:09.760000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+          <t>('0:01:03.840000', '0:01:11.060000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=62.27</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=63.84</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:40.460000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:00:20.580000', '0:00:32.500000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.46</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=20.58</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -935,231 +983,255 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:17.680000', '0:00:20.040000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:40.640000', '0:00:48.100000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.170000', '0:00:25.690000')]</t>
+          <t>('0:00:08.080000', '0:00:26.260000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:01:15.720000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:20.480000', '0:00:26.300000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=75.72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=20.48</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:04.840000', '0:00:10.640000')]</t>
+          <t>('0:00:11.360000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:00:25.480000', '0:00:56.440000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=11.36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=25.48</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
